--- a/new_taipei_index.xlsx
+++ b/new_taipei_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\NKUST\研究_0431-0328-0322【房價預測】\【實證分析】【房價指數】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79255F20-CE50-4095-98C3-8CF10C2D07BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14618EA-B306-4E22-9F04-0365C6EF0155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20945" windowHeight="8018" xr2:uid="{1F3FA85B-8227-4E8B-A4EE-3B1C37200009}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>new_taipei</t>
+    <t>taipei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85" x14ac:dyDescent="0.3"/>
